--- a/data_capture/excels/ALPK3_SA_dados.xlsx
+++ b/data_capture/excels/ALPK3_SA_dados.xlsx
@@ -955,7 +955,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1242"/>
+  <dimension ref="A1:H1244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33250,6 +33250,58 @@
         <v>0</v>
       </c>
       <c r="H1242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:8">
+      <c r="A1243" s="2">
+        <v>45796</v>
+      </c>
+      <c r="B1243">
+        <v>3.400000095367432</v>
+      </c>
+      <c r="C1243">
+        <v>3.430000066757202</v>
+      </c>
+      <c r="D1243">
+        <v>3.279999971389771</v>
+      </c>
+      <c r="E1243">
+        <v>3.339999914169312</v>
+      </c>
+      <c r="F1243">
+        <v>98000</v>
+      </c>
+      <c r="G1243">
+        <v>0</v>
+      </c>
+      <c r="H1243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:8">
+      <c r="A1244" s="2">
+        <v>45797</v>
+      </c>
+      <c r="B1244">
+        <v>3.369999885559082</v>
+      </c>
+      <c r="C1244">
+        <v>3.369999885559082</v>
+      </c>
+      <c r="D1244">
+        <v>3.180000066757202</v>
+      </c>
+      <c r="E1244">
+        <v>3.269999980926514</v>
+      </c>
+      <c r="F1244">
+        <v>117500</v>
+      </c>
+      <c r="G1244">
+        <v>0</v>
+      </c>
+      <c r="H1244">
         <v>0</v>
       </c>
     </row>
@@ -33303,31 +33355,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="C2">
-        <v>4.801506854947972</v>
+        <v>4.799227680588382</v>
       </c>
       <c r="D2">
-        <v>4.170000076293945</v>
+        <v>4.150000095367432</v>
       </c>
       <c r="E2">
         <v>2.960000038146973</v>
       </c>
       <c r="F2">
-        <v>2.602190412383913</v>
+        <v>2.600714739013644</v>
       </c>
       <c r="G2">
         <v>1.120000004768372</v>
       </c>
       <c r="H2">
-        <v>2.849999904632568</v>
+        <v>2.854999899864197</v>
       </c>
       <c r="I2">
-        <v>6.599999904632568</v>
+        <v>6.589999914169312</v>
       </c>
       <c r="J2">
-        <v>3.75</v>
+        <v>3.735000014305115</v>
       </c>
       <c r="K2">
         <v>10.47000026702881</v>
@@ -33338,10 +33390,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="C3">
-        <v>4.903182919038869</v>
+        <v>4.900764281962633</v>
       </c>
       <c r="D3">
         <v>4.239999771118164</v>
@@ -33350,19 +33402,19 @@
         <v>4.099999904632568</v>
       </c>
       <c r="F3">
-        <v>2.620695173732445</v>
+        <v>2.619278091149089</v>
       </c>
       <c r="G3">
         <v>1.139999985694885</v>
       </c>
       <c r="H3">
-        <v>2.940000057220459</v>
+        <v>2.945000052452087</v>
       </c>
       <c r="I3">
-        <v>6.78000020980835</v>
+        <v>6.75</v>
       </c>
       <c r="J3">
-        <v>3.840000152587891</v>
+        <v>3.804999947547913</v>
       </c>
       <c r="K3">
         <v>10.56999969482422</v>
@@ -33373,19 +33425,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="C4">
-        <v>4.687421437716119</v>
+        <v>4.685076431410982</v>
       </c>
       <c r="D4">
-        <v>4.039999961853027</v>
+        <v>4.03000020980835</v>
       </c>
       <c r="E4">
         <v>4.199999809265137</v>
       </c>
       <c r="F4">
-        <v>2.571025208966498</v>
+        <v>2.56961965365137</v>
       </c>
       <c r="G4">
         <v>1.110000014305115</v>
@@ -33394,10 +33446,10 @@
         <v>2.779999971389771</v>
       </c>
       <c r="I4">
-        <v>6.449999809265137</v>
+        <v>6.444999933242798</v>
       </c>
       <c r="J4">
-        <v>3.669999837875366</v>
+        <v>3.664999961853027</v>
       </c>
       <c r="K4">
         <v>10.39000034332275</v>
@@ -33408,19 +33460,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="C5">
-        <v>4.777767920570927</v>
+        <v>4.775398221499289</v>
       </c>
       <c r="D5">
-        <v>4.150000095367432</v>
+        <v>4.139999866485596</v>
       </c>
       <c r="E5">
         <v>4.199999809265137</v>
       </c>
       <c r="F5">
-        <v>2.592670447115405</v>
+        <v>2.59125545764193</v>
       </c>
       <c r="G5">
         <v>1.110000014305115</v>
@@ -33429,10 +33481,10 @@
         <v>2.839999914169312</v>
       </c>
       <c r="I5">
-        <v>6.5</v>
+        <v>6.494999885559082</v>
       </c>
       <c r="J5">
-        <v>3.660000085830688</v>
+        <v>3.654999971389771</v>
       </c>
       <c r="K5">
         <v>10.47000026702881</v>
@@ -33443,19 +33495,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="C6">
-        <v>168124.2546333602</v>
+        <v>168027.1118262269</v>
       </c>
       <c r="D6">
-        <v>82100</v>
+        <v>82400</v>
       </c>
       <c r="E6">
         <v>9700</v>
       </c>
       <c r="F6">
-        <v>494743.8855674719</v>
+        <v>494351.4625889904</v>
       </c>
       <c r="G6">
         <v>1900</v>
@@ -33464,10 +33516,10 @@
         <v>34200</v>
       </c>
       <c r="I6">
-        <v>166300</v>
+        <v>166250</v>
       </c>
       <c r="J6">
-        <v>132100</v>
+        <v>132050</v>
       </c>
       <c r="K6">
         <v>14524200</v>
@@ -33478,7 +33530,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -33513,7 +33565,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="C8">
         <v>0</v>
